--- a/biology/Botanique/Elaeocarpaceae/Elaeocarpaceae.xlsx
+++ b/biology/Botanique/Elaeocarpaceae/Elaeocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Éléocarpacées sont une famille de plantes dicotylédones qui comprend moins de 400 espèces réparties en une dizaine de genres.
 Ce sont des arbres ou des arbustes des régions tempérées mais surtout subtropicales à tropicales. L'aire de répartition comprend l'Asie du Sud-Est, la Malaisie, l'est de l'Australie, la Nouvelle-Calédonie, la Nouvelle-Zélande, le Chili.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Elaeocarpus composé de deux mots grecs ελαιο / elaio, huile, et καρπός / karpos, fruit, en raison de la ressemblance de ses fruits avec des olives.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (14 mai 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (14 mai 2010) :
 genre Aceratium DC.
 genre Aristotelia L'Her.
 genre Crinodendron Molina
@@ -558,7 +574,7 @@
 genre Tetratheca Sm.
 genre Tremandra R. Brown ex DC.
 genre Vallea Mutis ex L.f.
-Selon NCBI  (14 mai 2010)[2] :
+Selon NCBI  (14 mai 2010) :
 genre Aceratium
 genre Aristotelia
 genre Crinodendron
@@ -572,7 +588,7 @@
 genre Tetratheca
 genre Tremandra
 genre Vallea
-Selon DELTA Angio           (14 mai 2010)[3] :
+Selon DELTA Angio           (14 mai 2010) :
 genre Aceratium
 genre Aristotelia
 genre Crinodendron
@@ -582,7 +598,7 @@
 genre Sericolea
 genre Sloanea
 genre Valea
-Selon ITIS      (14 mai 2010)[4] :
+Selon ITIS      (14 mai 2010) :
 genre Dicera J. R. Forster &amp; J. G. A. Forster, 1776
 genre Elaeocarpus L.
 genre Muntingia L.
